--- a/Ear Surgery Instruments/Budget and Materials 14-Mar-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 14-Mar-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/Ear Surgery Instruments/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1000" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4395" yWindow="1005" windowWidth="28800" windowHeight="16305" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,8 +396,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,8 +444,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -523,7 +532,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,6 +569,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -838,14 +857,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
@@ -853,22 +872,22 @@
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="23.625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="56" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.5">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -894,12 +913,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -931,7 +950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
@@ -962,7 +981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="48" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -991,7 +1010,7 @@
         <v>500.08</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="63">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>500.08</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1064,7 @@
         <v>358.72</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1088,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1093,7 +1112,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="47.25">
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1118,7 +1137,7 @@
         <v>208.62</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="47.25">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1143,7 +1162,7 @@
         <v>208.62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="31.5">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1168,7 +1187,7 @@
         <v>190.83599999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="31.5">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1212,7 @@
         <v>38.988</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="31.5">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -1206,12 +1225,12 @@
         <v>3026.1535599999988</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="18.75">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1261,7 @@
         <v>243.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1286,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1279,7 +1298,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
@@ -1291,7 +1310,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="31.5">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
@@ -1304,12 +1323,12 @@
         <v>3624.1359999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="6" customFormat="1" ht="18.75">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1332,7 +1351,7 @@
         <v>17833.400000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1364,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>31</v>
       </c>
@@ -1362,13 +1381,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="E29" s="2">
         <f>3000*0.69*1.13</f>
         <v>2339.1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="31.5">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
@@ -1391,7 +1410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1424,27 +1443,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="11" customFormat="1">
       <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
@@ -1452,7 +1471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -1468,7 +1487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1479,7 +1498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>53</v>
       </c>
@@ -1487,7 +1506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -1495,13 +1514,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="11" customFormat="1">
       <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="11" customFormat="1">
       <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
@@ -1515,7 +1534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="63">
       <c r="B12" t="s">
         <v>56</v>
       </c>
@@ -1529,7 +1548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="63">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -1540,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="78.75">
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -1557,55 +1576,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="21">
+      <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="18.75">
+      <c r="B2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1619,7 +1640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="C5" s="8" t="s">
         <v>86</v>
       </c>
@@ -1630,7 +1651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="47.25">
       <c r="B6" s="2" t="s">
         <v>100</v>
       </c>
@@ -1647,7 +1668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="31.5">
       <c r="B7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1664,7 +1685,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="2" t="s">
         <v>89</v>
       </c>
@@ -1672,7 +1693,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
@@ -1680,7 +1701,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
@@ -1697,7 +1718,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="31.5">
       <c r="B12" s="2" t="s">
         <v>96</v>
       </c>
@@ -1711,7 +1732,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="2" t="s">
         <v>101</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" s="2" t="s">
         <v>105</v>
       </c>
@@ -1733,7 +1754,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="B15" s="2" t="s">
         <v>106</v>
       </c>
@@ -1744,7 +1765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
@@ -1760,5 +1781,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>